--- a/주가저장.xlsx
+++ b/주가저장.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="stock" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="stock" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,12 +455,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000660</t>
+          <t>005930</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>91200</t>
+          <t>57700</t>
         </is>
       </c>
     </row>
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>66900</t>
+          <t>48800</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>802000</t>
+          <t>884000</t>
         </is>
       </c>
     </row>
